--- a/Documents/Oscilloscope Information.xlsx
+++ b/Documents/Oscilloscope Information.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Scelbi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\scelbi-8-replica\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -592,10 +592,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,6 +1545,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>